--- a/results/mp/logistic/corona/confidence/126/masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/masking-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="82">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,58 +40,61 @@
     <t>name</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>die</t>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>falling</t>
+    <t>no</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>lower</t>
+  </si>
+  <si>
     <t>avoid</t>
   </si>
   <si>
     <t>cut</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>lower</t>
+    <t>empty</t>
   </si>
   <si>
     <t>risk</t>
@@ -100,12 +103,6 @@
     <t>stop</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
@@ -118,43 +115,52 @@
     <t>of</t>
   </si>
   <si>
+    <t>a</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>a</t>
+    <t>.</t>
+  </si>
+  <si>
+    <t>the</t>
   </si>
   <si>
     <t>to</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>thanks</t>
   </si>
   <si>
     <t>safe</t>
@@ -163,37 +169,34 @@
     <t>positive</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>save</t>
   </si>
   <si>
     <t>friends</t>
@@ -202,13 +205,13 @@
     <t>gt</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
-    <t>save</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>help</t>
@@ -217,18 +220,12 @@
     <t>please</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
@@ -238,37 +235,31 @@
     <t>safety</t>
   </si>
   <si>
-    <t>alert</t>
+    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>your</t>
+    <t>shopping</t>
   </si>
   <si>
     <t>you</t>
   </si>
   <si>
+    <t>are</t>
+  </si>
+  <si>
     <t>and</t>
   </si>
   <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>corona</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
 </sst>
 </file>
@@ -626,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -634,10 +625,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -695,13 +686,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8529411764705882</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -713,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -737,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -745,13 +736,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7894736842105263</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -763,19 +754,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -787,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -795,13 +786,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7777777777777778</v>
+        <v>0.8047945205479452</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>235</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>235</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -813,19 +804,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K5">
-        <v>0.9230769230769231</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -837,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -845,13 +836,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.773972602739726</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C6">
-        <v>226</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>226</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -863,19 +854,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L6">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M6">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -887,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -895,13 +886,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7666666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -913,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -937,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -945,13 +936,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7586206896551724</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -963,19 +954,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K8">
-        <v>0.8482142857142857</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L8">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="M8">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -987,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -995,13 +986,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7027027027027027</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1013,19 +1004,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K9">
-        <v>0.835509138381201</v>
+        <v>0.814621409921671</v>
       </c>
       <c r="L9">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="M9">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1037,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1045,13 +1036,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5686274509803921</v>
+        <v>0.6271186440677966</v>
       </c>
       <c r="C10">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D10">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1066,16 +1057,16 @@
         <v>22</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K10">
-        <v>0.8098591549295775</v>
+        <v>0.8125</v>
       </c>
       <c r="L10">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="M10">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1087,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1095,13 +1086,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5608465608465608</v>
+        <v>0.5503875968992248</v>
       </c>
       <c r="C11">
-        <v>106</v>
+        <v>284</v>
       </c>
       <c r="D11">
-        <v>106</v>
+        <v>284</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1113,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>83</v>
+        <v>232</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K11">
-        <v>0.7931034482758621</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L11">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1137,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1145,13 +1136,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.559322033898305</v>
+        <v>0.55</v>
       </c>
       <c r="C12">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1163,19 +1154,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K12">
-        <v>0.7872340425531915</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L12">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="M12">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1187,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1195,13 +1186,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5368217054263565</v>
+        <v>0.544973544973545</v>
       </c>
       <c r="C13">
-        <v>277</v>
+        <v>103</v>
       </c>
       <c r="D13">
-        <v>277</v>
+        <v>103</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1213,19 +1204,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>239</v>
+        <v>86</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13">
-        <v>0.7777777777777778</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L13">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="M13">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1237,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1245,13 +1236,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5100671140939598</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C14">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="D14">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1263,19 +1254,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K14">
-        <v>0.775</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L14">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="M14">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1287,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1295,13 +1286,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5</v>
+        <v>0.4832214765100671</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1313,19 +1304,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K15">
-        <v>0.7735849056603774</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L15">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M15">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1337,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1345,13 +1336,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4533333333333333</v>
+        <v>0.4305555555555556</v>
       </c>
       <c r="C16">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="D16">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1363,19 +1354,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>41</v>
+        <v>205</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K16">
-        <v>0.7682926829268293</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L16">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1387,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1395,13 +1386,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4363636363636363</v>
+        <v>0.3866666666666667</v>
       </c>
       <c r="C17">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1413,19 +1404,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K17">
-        <v>0.7575757575757576</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L17">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M17">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1437,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1445,13 +1436,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4363636363636363</v>
+        <v>0.375</v>
       </c>
       <c r="C18">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D18">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1463,19 +1454,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K18">
-        <v>0.7441860465116279</v>
+        <v>0.775</v>
       </c>
       <c r="L18">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="M18">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1487,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1495,13 +1486,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4111111111111111</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C19">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="D19">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1513,19 +1504,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>212</v>
+        <v>35</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K19">
-        <v>0.7435897435897436</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L19">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1537,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1545,13 +1536,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.375</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1566,16 +1557,16 @@
         <v>35</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K20">
-        <v>0.7407407407407407</v>
+        <v>0.75</v>
       </c>
       <c r="L20">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M20">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1587,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1595,13 +1586,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2597402597402597</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1613,19 +1604,19 @@
         <v>0</v>
       </c>
       <c r="H21">
+        <v>62</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="K21">
-        <v>0.7301587301587301</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L21">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="M21">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1637,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1645,13 +1636,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.257936507936508</v>
+        <v>0.2597402597402597</v>
       </c>
       <c r="C22">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D22">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1663,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>187</v>
+        <v>57</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K22">
-        <v>0.7265625</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="L22">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="M22">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1687,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1698,10 +1689,10 @@
         <v>0.25</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1713,19 +1704,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>60</v>
+        <v>189</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K23">
-        <v>0.7142857142857143</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L23">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="M23">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1737,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1745,13 +1736,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2444444444444444</v>
+        <v>0.1796246648793566</v>
       </c>
       <c r="C24">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="D24">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1763,19 +1754,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>68</v>
+        <v>306</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K24">
-        <v>0.7</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L24">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M24">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1787,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1795,13 +1786,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1689008042895442</v>
+        <v>0.09666666666666666</v>
       </c>
       <c r="C25">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="D25">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1813,19 +1804,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K25">
-        <v>0.6875</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L25">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M25">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1837,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1845,37 +1836,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.06666666666666667</v>
+        <v>0.01612383102225089</v>
       </c>
       <c r="C26">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>280</v>
+        <v>3051</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K26">
-        <v>0.6529411764705882</v>
+        <v>0.65</v>
       </c>
       <c r="L26">
-        <v>222</v>
+        <v>26</v>
       </c>
       <c r="M26">
-        <v>222</v>
+        <v>26</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1887,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>118</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1895,13 +1886,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.01581155211358503</v>
+        <v>0.0130581297388374</v>
       </c>
       <c r="C27">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D27">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="E27">
         <v>0.14</v>
@@ -1913,19 +1904,19 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>3050</v>
+        <v>2343</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K27">
-        <v>0.6</v>
+        <v>0.6411764705882353</v>
       </c>
       <c r="L27">
-        <v>21</v>
+        <v>218</v>
       </c>
       <c r="M27">
-        <v>21</v>
+        <v>218</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1937,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>14</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1945,37 +1936,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.01561840439003799</v>
+        <v>0.01089324618736384</v>
       </c>
       <c r="C28">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D28">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E28">
-        <v>0.21</v>
+        <v>0.36</v>
       </c>
       <c r="F28">
-        <v>0.79</v>
+        <v>0.64</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>2332</v>
+        <v>2270</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K28">
-        <v>0.5966101694915255</v>
+        <v>0.64</v>
       </c>
       <c r="L28">
-        <v>176</v>
+        <v>32</v>
       </c>
       <c r="M28">
-        <v>176</v>
+        <v>32</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1987,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>119</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1995,37 +1986,37 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01122544434050514</v>
+        <v>0.00936768149882904</v>
       </c>
       <c r="C29">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D29">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E29">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="F29">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K29">
-        <v>0.5857740585774058</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L29">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="M29">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2037,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>99</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2045,13 +2036,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.008286088094199739</v>
+        <v>0.007453666398066076</v>
       </c>
       <c r="C30">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D30">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="E30">
         <v>0.46</v>
@@ -2063,31 +2054,31 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>2274</v>
+        <v>4927</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K30">
-        <v>0.58</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="L30">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="M30">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>21</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2095,37 +2086,37 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.007676203768318213</v>
+        <v>0.00720404984423676</v>
       </c>
       <c r="C31">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D31">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E31">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="F31">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>4266</v>
+        <v>5099</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K31">
-        <v>0.5571428571428572</v>
+        <v>0.5857740585774058</v>
       </c>
       <c r="L31">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="M31">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2137,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>31</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2145,37 +2136,37 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.007670569236980218</v>
+        <v>0.00604370060437006</v>
       </c>
       <c r="C32">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D32">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="E32">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="F32">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>4916</v>
+        <v>4276</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K32">
-        <v>0.5538461538461539</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L32">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M32">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2190,496 +2181,420 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K33">
+        <v>0.5846153846153846</v>
+      </c>
+      <c r="L33">
         <v>38</v>
       </c>
-      <c r="B33">
-        <v>0.006622516556291391</v>
-      </c>
-      <c r="C33">
-        <v>34</v>
-      </c>
-      <c r="D33">
-        <v>65</v>
-      </c>
-      <c r="E33">
-        <v>0.48</v>
-      </c>
-      <c r="F33">
-        <v>0.52</v>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>5100</v>
-      </c>
-      <c r="J33" s="1" t="s">
+      <c r="M33">
+        <v>38</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K33">
-        <v>0.5531914893617021</v>
-      </c>
-      <c r="L33">
+      <c r="K34">
+        <v>0.550561797752809</v>
+      </c>
+      <c r="L34">
+        <v>49</v>
+      </c>
+      <c r="M34">
+        <v>49</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K35">
+        <v>0.4888888888888889</v>
+      </c>
+      <c r="L35">
+        <v>22</v>
+      </c>
+      <c r="M35">
+        <v>22</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K36">
+        <v>0.4509803921568628</v>
+      </c>
+      <c r="L36">
+        <v>23</v>
+      </c>
+      <c r="M36">
+        <v>23</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K37">
+        <v>0.3835616438356164</v>
+      </c>
+      <c r="L37">
+        <v>28</v>
+      </c>
+      <c r="M37">
+        <v>28</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K38">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="L38">
+        <v>24</v>
+      </c>
+      <c r="M38">
+        <v>24</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K39">
+        <v>0.04807692307692308</v>
+      </c>
+      <c r="L39">
+        <v>20</v>
+      </c>
+      <c r="M39">
+        <v>20</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K40">
+        <v>0.03839732888146911</v>
+      </c>
+      <c r="L40">
+        <v>46</v>
+      </c>
+      <c r="M40">
+        <v>48</v>
+      </c>
+      <c r="N40">
+        <v>0.96</v>
+      </c>
+      <c r="O40">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K41">
+        <v>0.02032838154808444</v>
+      </c>
+      <c r="L41">
+        <v>26</v>
+      </c>
+      <c r="M41">
+        <v>36</v>
+      </c>
+      <c r="N41">
+        <v>0.72</v>
+      </c>
+      <c r="O41">
+        <v>0.28</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K42">
+        <v>0.0139150056412185</v>
+      </c>
+      <c r="L42">
+        <v>37</v>
+      </c>
+      <c r="M42">
+        <v>51</v>
+      </c>
+      <c r="N42">
+        <v>0.73</v>
+      </c>
+      <c r="O42">
+        <v>0.27</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K43">
+        <v>0.01068639539662967</v>
+      </c>
+      <c r="L43">
+        <v>26</v>
+      </c>
+      <c r="M43">
+        <v>38</v>
+      </c>
+      <c r="N43">
+        <v>0.68</v>
+      </c>
+      <c r="O43">
+        <v>0.32</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K44">
+        <v>0.01045587620242576</v>
+      </c>
+      <c r="L44">
+        <v>25</v>
+      </c>
+      <c r="M44">
+        <v>28</v>
+      </c>
+      <c r="N44">
+        <v>0.89</v>
+      </c>
+      <c r="O44">
+        <v>0.11</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K45">
+        <v>0.006903043614684657</v>
+      </c>
+      <c r="L45">
+        <v>22</v>
+      </c>
+      <c r="M45">
+        <v>36</v>
+      </c>
+      <c r="N45">
+        <v>0.61</v>
+      </c>
+      <c r="O45">
+        <v>0.39</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K46">
+        <v>0.006452913893930228</v>
+      </c>
+      <c r="L46">
+        <v>32</v>
+      </c>
+      <c r="M46">
+        <v>69</v>
+      </c>
+      <c r="N46">
+        <v>0.46</v>
+      </c>
+      <c r="O46">
+        <v>0.54</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>4927</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K47">
+        <v>0.00604370060437006</v>
+      </c>
+      <c r="L47">
+        <v>26</v>
+      </c>
+      <c r="M47">
         <v>52</v>
       </c>
-      <c r="M33">
-        <v>52</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="J34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K34">
-        <v>0.5168539325842697</v>
-      </c>
-      <c r="L34">
-        <v>46</v>
-      </c>
-      <c r="M34">
-        <v>46</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="J35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K35">
-        <v>0.5111111111111111</v>
-      </c>
-      <c r="L35">
-        <v>23</v>
-      </c>
-      <c r="M35">
-        <v>23</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="J36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K36">
-        <v>0.5098039215686274</v>
-      </c>
-      <c r="L36">
-        <v>26</v>
-      </c>
-      <c r="M36">
-        <v>26</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="J37" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K37">
-        <v>0.4523809523809524</v>
-      </c>
-      <c r="L37">
-        <v>19</v>
-      </c>
-      <c r="M37">
-        <v>19</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="J38" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K38">
-        <v>0.3717948717948718</v>
-      </c>
-      <c r="L38">
+      <c r="N47">
+        <v>0.5</v>
+      </c>
+      <c r="O47">
+        <v>0.5</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>4276</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K48">
+        <v>0.005655226209048362</v>
+      </c>
+      <c r="L48">
         <v>29</v>
       </c>
-      <c r="M38">
-        <v>29</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="J39" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K39">
-        <v>0.3698630136986301</v>
-      </c>
-      <c r="L39">
-        <v>27</v>
-      </c>
-      <c r="M39">
-        <v>27</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K40">
-        <v>0.3389830508474576</v>
-      </c>
-      <c r="L40">
-        <v>20</v>
-      </c>
-      <c r="M40">
-        <v>20</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K41">
-        <v>0.296875</v>
-      </c>
-      <c r="L41">
-        <v>19</v>
-      </c>
-      <c r="M41">
-        <v>19</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K42">
-        <v>0.04204753199268738</v>
-      </c>
-      <c r="L42">
-        <v>23</v>
-      </c>
-      <c r="M42">
-        <v>23</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K43">
-        <v>0.03502919099249374</v>
-      </c>
-      <c r="L43">
-        <v>42</v>
-      </c>
-      <c r="M43">
-        <v>43</v>
-      </c>
-      <c r="N43">
-        <v>0.98</v>
-      </c>
-      <c r="O43">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P43" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q43">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="J44" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K44">
-        <v>0.01614720240330455</v>
-      </c>
-      <c r="L44">
-        <v>43</v>
-      </c>
-      <c r="M44">
-        <v>53</v>
-      </c>
-      <c r="N44">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="O44">
-        <v>0.1899999999999999</v>
-      </c>
-      <c r="P44" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q44">
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="J45" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K45">
-        <v>0.01221804511278195</v>
-      </c>
-      <c r="L45">
-        <v>39</v>
-      </c>
-      <c r="M45">
-        <v>48</v>
-      </c>
-      <c r="N45">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="O45">
-        <v>0.1899999999999999</v>
-      </c>
-      <c r="P45" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q45">
-        <v>3153</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="J46" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K46">
-        <v>0.01069958847736626</v>
-      </c>
-      <c r="L46">
-        <v>26</v>
-      </c>
-      <c r="M46">
-        <v>41</v>
-      </c>
-      <c r="N46">
-        <v>0.63</v>
-      </c>
-      <c r="O46">
-        <v>0.37</v>
-      </c>
-      <c r="P46" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q46">
-        <v>2404</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="J47" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K47">
-        <v>0.009212730318257957</v>
-      </c>
-      <c r="L47">
-        <v>22</v>
-      </c>
-      <c r="M47">
-        <v>28</v>
-      </c>
-      <c r="N47">
-        <v>0.79</v>
-      </c>
-      <c r="O47">
-        <v>0.21</v>
-      </c>
-      <c r="P47" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q47">
-        <v>2366</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="J48" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K48">
-        <v>0.008471157724889069</v>
-      </c>
-      <c r="L48">
-        <v>42</v>
-      </c>
       <c r="M48">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="N48">
-        <v>0.53</v>
+        <v>0.44</v>
       </c>
       <c r="O48">
-        <v>0.47</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>4916</v>
-      </c>
-    </row>
-    <row r="49" spans="10:17">
-      <c r="J49" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K49">
-        <v>0.006752037252619325</v>
-      </c>
-      <c r="L49">
-        <v>29</v>
-      </c>
-      <c r="M49">
-        <v>62</v>
-      </c>
-      <c r="N49">
-        <v>0.47</v>
-      </c>
-      <c r="O49">
-        <v>0.53</v>
-      </c>
-      <c r="P49" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q49">
-        <v>4266</v>
-      </c>
-    </row>
-    <row r="50" spans="10:17">
-      <c r="J50" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K50">
-        <v>0.006041707269538101</v>
-      </c>
-      <c r="L50">
-        <v>31</v>
-      </c>
-      <c r="M50">
-        <v>65</v>
-      </c>
-      <c r="N50">
-        <v>0.48</v>
-      </c>
-      <c r="O50">
-        <v>0.52</v>
-      </c>
-      <c r="P50" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q50">
-        <v>5100</v>
+        <v>5099</v>
       </c>
     </row>
   </sheetData>
